--- a/biology/Zoologie/Didelphinae/Didelphinae.xlsx
+++ b/biology/Zoologie/Didelphinae/Didelphinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Didelphinés (Didelphinae Gray, 1821) constituent une des deux sous-famille d’opossums d'Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (31 mai 2010)[1] et ITIS      (31 mai 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (31 mai 2010) et ITIS      (31 mai 2010) :
 genre Chironectes Illiger, 1811
 genre Didelphis Linnaeus, 1758
 genre Gracilinanus Gardner &amp; Creighton, 1989
@@ -528,7 +542,7 @@
 genre Philander Brisson, 1762
 genre Thylamys Gray, 1843
 genre Tlacuatzin Voss &amp; Jansa, 2003
-Selon NCBI  (31 mai 2010)[3], le genre Hyladelphys est placé directement sous Didelphidae, sans sous-famille, et en genre Cryptonanus est cité en plus.
+Selon NCBI  (31 mai 2010), le genre Hyladelphys est placé directement sous Didelphidae, sans sous-famille, et en genre Cryptonanus est cité en plus.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (31 mai 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (31 mai 2010) :
 genre Chironectes
 Chironectes minimus
 genre Didelphis
